--- a/data/Excel/1.9.xlsx
+++ b/data/Excel/1.9.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932DA3C7-EE27-4894-8C86-1D7561AF27C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522778DC-50C4-4DE1-BD27-39F749F3B3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="1.0" sheetId="3" r:id="rId1"/>
+    <sheet name="1.0" sheetId="5" r:id="rId1"/>
     <sheet name="1.9" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.9'!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1.9'!$A$1:$L$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="69">
   <si>
     <t>Сведения об обособленном подразделении</t>
   </si>
@@ -186,18 +186,12 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>"__"_____ 20__г.</t>
-  </si>
-  <si>
     <t>Дата окончания настящего отчетного периода</t>
   </si>
   <si>
     <t>Номер корректировки</t>
   </si>
   <si>
-    <t>_____</t>
-  </si>
-  <si>
     <t>№ п/п</t>
   </si>
   <si>
@@ -279,19 +273,27 @@
     <t>(Телефон)</t>
   </si>
   <si>
-    <t>(Электронная почта (при наличии))</t>
+    <t>(Электронная почта)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -735,360 +737,293 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{4376336D-9B10-4788-8EF4-8AF9AA3CF3A4}"/>
     <cellStyle name="Обычный 3" xfId="2" xr:uid="{516B5247-65DE-41C1-9BDF-46139D733310}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1366,754 +1301,750 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF100B7D-2C73-4734-9D1C-BC94BC8D1420}">
-  <dimension ref="A1:I34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E49ED-2EEF-464F-B521-967181DC2E3C}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:E10"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.15625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="45.68359375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.68359375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="50.578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83984375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.15625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="1"/>
+    <col min="1" max="1" width="16.68359375" style="23" customWidth="1"/>
+    <col min="2" max="2" width="12.89453125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="10.47265625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="16.83984375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="40.3125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="37.47265625" style="23" customWidth="1"/>
+    <col min="7" max="9" width="10.578125" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="23"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="24" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D5" s="20" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="28"/>
+      <c r="E6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18" t="s">
+      <c r="F6" s="29"/>
+      <c r="G6" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="9" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="60" t="s">
+    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="63" t="s">
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="55" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="34"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="56"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="66" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="34"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="15"/>
-    </row>
-    <row r="13" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="68" t="s">
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B16" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="68"/>
-      <c r="B14" s="71" t="s">
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="47"/>
+    </row>
+    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="45"/>
+      <c r="B17" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="68"/>
-      <c r="B15" s="71" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="45"/>
+      <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="68"/>
-      <c r="B16" s="71" t="s">
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="47"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="45"/>
+      <c r="B19" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="68"/>
-      <c r="B17" s="71" t="s">
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="47"/>
+    </row>
+    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="45"/>
+      <c r="B20" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="68"/>
-      <c r="B18" s="71" t="s">
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="47"/>
+    </row>
+    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="45"/>
+      <c r="B21" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="68"/>
-      <c r="B19" s="72" t="s">
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="47"/>
+    </row>
+    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="45"/>
+      <c r="B22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="68"/>
-      <c r="B20" s="72" t="s">
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="47"/>
+    </row>
+    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="45"/>
+      <c r="B23" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="69"/>
-      <c r="B21" s="76" t="s">
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="47"/>
+    </row>
+    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A24" s="50"/>
+      <c r="B24" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:9" ht="43" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="77" t="s">
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="52"/>
+    </row>
+    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B25" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="68"/>
-      <c r="B23" s="71" t="s">
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="45"/>
+      <c r="B26" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:9" ht="41.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="68"/>
-      <c r="B24" s="71" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="58"/>
+    </row>
+    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="45"/>
+      <c r="B27" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="68"/>
-      <c r="B25" s="71" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="58"/>
+    </row>
+    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="45"/>
+      <c r="B28" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:9" ht="62.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="68"/>
-      <c r="B26" s="71" t="s">
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="58"/>
+    </row>
+    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="45"/>
+      <c r="B29" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="12"/>
-    </row>
-    <row r="27" spans="1:9" ht="53.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="68"/>
-      <c r="B27" s="72" t="s">
+      <c r="C29" s="48"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="58"/>
+    </row>
+    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="45"/>
+      <c r="B30" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="68"/>
-      <c r="B28" s="72" t="s">
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="47"/>
+    </row>
+    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="45"/>
+      <c r="B31" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A29" s="78"/>
-      <c r="B29" s="76" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="47"/>
+    </row>
+    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A32" s="60"/>
+      <c r="B32" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A31" s="73" t="s">
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G33" s="63"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="74"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="4"/>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="66"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="67"/>
+      <c r="B35" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C35" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D35" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E35" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F35" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G35" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H35" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I35" s="68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="2" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A33" s="8" t="s">
+    <row r="36" spans="1:9" s="72" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" s="2" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="5" t="s">
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+    </row>
+    <row r="37" spans="1:9" s="72" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A37" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="68"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="68"/>
+      <c r="I37" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
+  <mergeCells count="28">
+    <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
+    <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A12:E14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8758C8-783A-439C-9856-594D70A9D65A}">
-  <dimension ref="A1:Q22"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.15625" style="25"/>
-    <col min="2" max="2" width="24.26171875" style="25" customWidth="1"/>
-    <col min="3" max="3" width="10.83984375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="24.68359375" style="25" customWidth="1"/>
-    <col min="5" max="5" width="12.15625" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.83984375" style="25" customWidth="1"/>
-    <col min="7" max="7" width="27.15625" style="25" customWidth="1"/>
-    <col min="8" max="8" width="15.41796875" style="25" customWidth="1"/>
-    <col min="9" max="9" width="18.578125" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="25"/>
+    <col min="1" max="9" width="10.578125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.15625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="I1" s="26" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="I1" s="3"/>
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="I2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="97" t="s">
+    <row r="2" spans="1:17" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="98" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="29" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A5" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="98" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="30"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="98" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="31" t="s">
+      <c r="B8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="31"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="32"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-    </row>
-    <row r="9" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="84" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="100" t="s">
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="101"/>
-      <c r="D9" s="100" t="s">
+      <c r="H8" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="102"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="103" t="s">
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:17" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A9" s="19"/>
+      <c r="B9" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="100" t="s">
+      <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="101"/>
-    </row>
-    <row r="10" spans="1:17" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="99"/>
-      <c r="B10" s="33" t="s">
+      <c r="D9" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="E9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="77"/>
+      <c r="H9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="34" t="s">
+      <c r="I9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="104"/>
-      <c r="H10" s="34" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A10" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="B10" s="9" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="35" t="s">
+      <c r="C10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="D10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="E10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="F10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="36" t="s">
+      <c r="G10" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="H10" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="36" t="s">
+      <c r="I10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="36" t="s">
+    </row>
+    <row r="14" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="36">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="37"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="41"/>
-    </row>
-    <row r="13" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="44"/>
-    </row>
-    <row r="16" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="25" t="s">
+      <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="84" t="s">
+      <c r="C14" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="85"/>
-      <c r="C17" s="45" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A18" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="88"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="88"/>
+      <c r="L18" s="88"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="46"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="93"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="46"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="47"/>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-    </row>
-    <row r="21" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="50" t="s">
+      <c r="E19" s="14"/>
+      <c r="F19" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-    </row>
-    <row r="22" spans="1:11" ht="35.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="53" t="s">
+      <c r="G19" s="89"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="54" t="s">
+      <c r="J19" s="13"/>
+      <c r="K19" s="90" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="53" t="s">
-        <v>69</v>
-      </c>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53" t="s">
-        <v>70</v>
-      </c>
+      <c r="L19" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A3:I3"/>
+  <mergeCells count="19">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="57" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="1000" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Excel/1.9.xlsx
+++ b/data/Excel/1.9.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522778DC-50C4-4DE1-BD27-39F749F3B3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="430" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -279,7 +278,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,7 +358,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -616,19 +615,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -739,6 +725,69 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -752,7 +801,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -768,7 +817,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -780,7 +829,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
@@ -794,53 +843,132 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -850,140 +978,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -992,39 +1047,66 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{B5BE5C71-2102-4ADA-89D1-EA43F7263FF4}"/>
-    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{4376336D-9B10-4788-8EF4-8AF9AA3CF3A4}"/>
-    <cellStyle name="Обычный 3" xfId="2" xr:uid="{516B5247-65DE-41C1-9BDF-46139D733310}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1301,394 +1383,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7E49ED-2EEF-464F-B521-967181DC2E3C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.68359375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.89453125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.47265625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="16.83984375" style="23" customWidth="1"/>
-    <col min="5" max="5" width="40.3125" style="23" customWidth="1"/>
-    <col min="6" max="6" width="37.47265625" style="23" customWidth="1"/>
-    <col min="7" max="9" width="10.578125" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="23"/>
+    <col min="1" max="1" width="16.7109375" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" style="16" customWidth="1"/>
+    <col min="7" max="9" width="10.5703125" style="16" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="I1" s="24" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="26" t="s">
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="26" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="D6" s="28"/>
-      <c r="E6" s="28" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="19"/>
+      <c r="E6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31" t="s">
+    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="34"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="35" t="s">
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="62"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="34"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="34"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="38"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="42" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="62"/>
+    </row>
+    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="62"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="45" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="85"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-    </row>
-    <row r="17" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="45"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="89"/>
+      <c r="H16" s="89"/>
+      <c r="I16" s="86"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
       <c r="B17" s="48" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="47"/>
-    </row>
-    <row r="18" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="45"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="86"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
       <c r="B18" s="48" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="47"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="45"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="86"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
       <c r="B19" s="48" t="s">
         <v>21</v>
       </c>
       <c r="C19" s="48"/>
       <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="47"/>
-    </row>
-    <row r="20" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="45"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89"/>
+      <c r="I19" s="86"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
       <c r="B20" s="48" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="48"/>
       <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="47"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="45"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="86"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
       <c r="B21" s="48" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="47"/>
-    </row>
-    <row r="22" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="45"/>
-      <c r="B22" s="49" t="s">
+      <c r="E21" s="49"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="86"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="47"/>
-    </row>
-    <row r="23" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="45"/>
-      <c r="B23" s="49" t="s">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="86"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="47"/>
-    </row>
-    <row r="24" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51" t="s">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="86"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="53" t="s">
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="88"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-    </row>
-    <row r="26" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="101"/>
+      <c r="H25" s="101"/>
+      <c r="I25" s="102"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
       <c r="B26" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="48"/>
       <c r="D26" s="48"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-    </row>
-    <row r="27" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="45"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="87"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
       <c r="B27" s="48" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="48"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="58"/>
-    </row>
-    <row r="28" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="45"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="87"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
       <c r="B28" s="48" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="48"/>
       <c r="D28" s="48"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="58"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="45"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="87"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
       <c r="B29" s="48" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="58"/>
-    </row>
-    <row r="30" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="45"/>
-      <c r="B30" s="49" t="s">
+      <c r="E29" s="49"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="87"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="47"/>
-    </row>
-    <row r="31" spans="1:6" ht="23.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="45"/>
-      <c r="B31" s="49" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="89"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="86"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="47"/>
-    </row>
-    <row r="32" spans="1:6" ht="23.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A32" s="60"/>
-      <c r="B32" s="61" t="s">
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="96"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="86"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="45"/>
+      <c r="B32" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="G33" s="63"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="64" t="s">
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="88"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
+    </row>
+    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23"/>
+      <c r="B35" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="68" t="s">
+      <c r="C35" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="68" t="s">
+      <c r="E35" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="68" t="s">
+      <c r="F35" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="68" t="s">
+      <c r="G35" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="68" t="s">
+      <c r="H35" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="68" t="s">
+      <c r="I35" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="72" customFormat="1" ht="46.2" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="69" t="s">
+    <row r="36" spans="1:9" s="28" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="70"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-    </row>
-    <row r="37" spans="1:9" s="72" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="73" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+    </row>
+    <row r="37" spans="1:9" s="28" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="46">
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1700,23 +1866,11 @@
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="B32:E32"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:I29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1724,23 +1878,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F8758C8-783A-439C-9856-594D70A9D65A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15.3" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="10.578125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.15625" style="2"/>
+    <col min="1" max="9" width="10.5703125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1751,18 +1905,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="52.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:17" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1772,17 +1926,17 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1793,41 +1947,41 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="17" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+    </row>
+    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="91"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1837,36 +1991,36 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="76" t="s">
+      <c r="E8" s="72"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="21"/>
-    </row>
-    <row r="9" spans="1:17" ht="320.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="74" t="s">
+      <c r="I8" s="73"/>
+    </row>
+    <row r="9" spans="1:17" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="79"/>
+      <c r="B9" s="30" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="75" t="s">
+      <c r="D9" s="31" t="s">
         <v>48</v>
       </c>
       <c r="E9" s="7" t="s">
@@ -1875,7 +2029,7 @@
       <c r="F9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="77"/>
+      <c r="G9" s="81"/>
       <c r="H9" s="7" t="s">
         <v>50</v>
       </c>
@@ -1883,7 +2037,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>52</v>
       </c>
@@ -1912,95 +2066,95 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="78"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="13" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="78" t="s">
+    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="21"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="73"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="15.6" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="78"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="21"/>
+    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="73"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="14"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="86" t="s">
+    <row r="18" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="88"/>
-      <c r="G18" s="88"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="87"/>
+      <c r="I18" s="37"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="88"/>
-      <c r="L18" s="88"/>
-    </row>
-    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K18" s="75"/>
+      <c r="L18" s="75"/>
+    </row>
+    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="13"/>
@@ -2008,29 +2162,22 @@
         <v>65</v>
       </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="89" t="s">
+      <c r="F19" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="89"/>
+      <c r="G19" s="69"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J19" s="13"/>
-      <c r="K19" s="90" t="s">
+      <c r="K19" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="L19" s="90"/>
+      <c r="L19" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2043,6 +2190,13 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="1000" orientation="portrait" r:id="rId1"/>

--- a/data/Excel/1.9.xlsx
+++ b/data/Excel/1.9.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkl\source\repos\repo\RAO_Project\data\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\RAO_Project\data\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1774E47-A23A-4C99-9811-13B67AEA36D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19305" yWindow="435" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.0" sheetId="5" r:id="rId1"/>
@@ -185,9 +186,6 @@
     <t>Дата окончания предыдущего отчетного периода</t>
   </si>
   <si>
-    <t>Дата окончания настящего отчетного периода</t>
-  </si>
-  <si>
     <t>Номер корректировки</t>
   </si>
   <si>
@@ -273,12 +271,15 @@
   </si>
   <si>
     <t>(Электронная почта)</t>
+  </si>
+  <si>
+    <t>Дата окончания настоящего отчетного периода</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -801,7 +802,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -838,12 +839,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -894,21 +889,111 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -921,10 +1006,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -936,68 +1021,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1005,108 +1084,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 3" xfId="2"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Обычный 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1383,478 +1372,448 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="F28" sqref="F28:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="40.28515625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="16" customWidth="1"/>
-    <col min="7" max="9" width="10.5703125" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="16.7265625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="14" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="40.26953125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="37.453125" style="14" customWidth="1"/>
+    <col min="7" max="9" width="10.54296875" style="14" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I1" s="15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-    </row>
-    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-    </row>
-    <row r="5" spans="1:9" ht="2.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="19"/>
-      <c r="E6" s="19" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+    </row>
+    <row r="5" spans="1:9" ht="2.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+    </row>
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="59" t="s">
+    <row r="9" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62" t="s">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="49" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+    <row r="11" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="62"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="62"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:9" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="66"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="62"/>
-    </row>
-    <row r="15" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="53" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" ht="31" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="85"/>
-    </row>
-    <row r="16" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="43"/>
+    </row>
+    <row r="16" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="89"/>
-      <c r="H16" s="89"/>
-      <c r="I16" s="86"/>
-    </row>
-    <row r="17" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="48" t="s">
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+    </row>
+    <row r="17" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="59"/>
+      <c r="B17" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="96"/>
-      <c r="G17" s="89"/>
-      <c r="H17" s="89"/>
-      <c r="I17" s="86"/>
-    </row>
-    <row r="18" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="48" t="s">
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+    </row>
+    <row r="18" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
+      <c r="B18" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="96"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="86"/>
-    </row>
-    <row r="19" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="48" t="s">
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+    </row>
+    <row r="19" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="59"/>
+      <c r="B19" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="86"/>
-    </row>
-    <row r="20" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="48" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="59"/>
+      <c r="B20" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="89"/>
-      <c r="I20" s="86"/>
-    </row>
-    <row r="21" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="48" t="s">
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="64"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+    </row>
+    <row r="21" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="59"/>
+      <c r="B21" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="89"/>
-      <c r="I21" s="86"/>
-    </row>
-    <row r="22" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="50" t="s">
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+    </row>
+    <row r="22" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="59"/>
+      <c r="B22" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="86"/>
-    </row>
-    <row r="23" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="50" t="s">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+    </row>
+    <row r="23" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="59"/>
+      <c r="B23" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="89"/>
-      <c r="I23" s="86"/>
-    </row>
-    <row r="24" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="42" t="s">
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+    </row>
+    <row r="24" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="60"/>
+      <c r="B24" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="88"/>
-    </row>
-    <row r="25" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="100"/>
-      <c r="G25" s="101"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="102"/>
-    </row>
-    <row r="26" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="48" t="s">
+      <c r="C25" s="74"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="59"/>
+      <c r="B26" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="87"/>
-    </row>
-    <row r="27" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="48" t="s">
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="59"/>
+      <c r="B27" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="87"/>
-    </row>
-    <row r="28" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="48" t="s">
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="59"/>
+      <c r="B28" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="48"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="87"/>
-    </row>
-    <row r="29" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="48" t="s">
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="59"/>
+      <c r="B29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="87"/>
-    </row>
-    <row r="30" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="50" t="s">
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="82"/>
+    </row>
+    <row r="30" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="59"/>
+      <c r="B30" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="86"/>
-    </row>
-    <row r="31" spans="1:9" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="50" t="s">
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+    </row>
+    <row r="31" spans="1:9" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="59"/>
+      <c r="B31" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="86"/>
-    </row>
-    <row r="32" spans="1:9" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="52" t="s">
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+    </row>
+    <row r="32" spans="1:9" ht="23.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="73"/>
+      <c r="B32" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="99"/>
-      <c r="I32" s="88"/>
-    </row>
-    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="1:9" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
-    </row>
-    <row r="35" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="23"/>
-      <c r="B35" s="24" t="s">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="21"/>
+      <c r="B35" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="F35" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H35" s="24" t="s">
+      <c r="H35" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="22" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="28" customFormat="1" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+    <row r="36" spans="1:9" s="26" customFormat="1" ht="47" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-    </row>
-    <row r="37" spans="1:9" s="28" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" s="26" customFormat="1" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:F14"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="B24:E24"/>
     <mergeCell ref="A25:A32"/>
@@ -1871,6 +1830,36 @@
     <mergeCell ref="F27:I27"/>
     <mergeCell ref="F28:I28"/>
     <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:A24"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:F14"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E14"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="F24:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="50" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1878,23 +1867,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="10.5703125" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="9" width="10.54296875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1905,18 +1894,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="52.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+    <row r="2" spans="1:17" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
@@ -1926,17 +1915,17 @@
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+    <row r="3" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="84" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -1947,41 +1936,41 @@
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="77" t="s">
+    <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-    </row>
-    <row r="5" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-    </row>
-    <row r="7" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -1991,193 +1980,200 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="s">
+    <row r="8" spans="1:17" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="71" t="s">
+      <c r="E8" s="89"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="80" t="s">
+      <c r="H8" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="71" t="s">
+      <c r="I8" s="88"/>
+    </row>
+    <row r="9" spans="1:17" ht="320.14999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="86"/>
+      <c r="B9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="73"/>
-    </row>
-    <row r="9" spans="1:17" ht="320.10000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="30" t="s">
+      <c r="C9" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="D9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="E9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="81"/>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="7" t="s">
+    </row>
+    <row r="10" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="I10" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
+    <row r="11" spans="1:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="32"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="30"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="30" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="B14" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="88"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="72"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
+    <row r="15" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="30"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="89"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="89"/>
+      <c r="H15" s="89"/>
+      <c r="I15" s="88"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="14"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="37"/>
+    <row r="18" spans="1:12" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="33"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="37"/>
+      <c r="I18" s="33"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-    </row>
-    <row r="19" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+    </row>
+    <row r="19" spans="1:12" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="13"/>
       <c r="D19" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="95" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="69"/>
+      <c r="G19" s="95"/>
       <c r="H19" s="13"/>
       <c r="I19" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="13"/>
+      <c r="K19" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="13"/>
-      <c r="K19" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="L19" s="70"/>
+      <c r="L19" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="K18:L18"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
@@ -2190,13 +2186,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="K18:L18"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="1000" orientation="portrait" r:id="rId1"/>
